--- a/podatki/Pregled_pridelkov_regije.xlsx
+++ b/podatki/Pregled_pridelkov_regije.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakab\Desktop\R-Projekt-Naloga\APPR-2020-21\podatki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BD1D3E-8FAF-4D7C-8CCB-4E1B0C558779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C312606D-8372-404A-9855-9F296169F92A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33930" yWindow="2160" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="2565" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1502410S" sheetId="2" r:id="rId1"/>
@@ -118,9 +118,6 @@
     <t>Oljke</t>
   </si>
   <si>
-    <t>Slovenska regija</t>
-  </si>
-  <si>
     <t>Kolicina</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>leto</t>
+  </si>
+  <si>
+    <t>Slovenska_regija</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:D2524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,21 +541,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>0</v>
@@ -5550,7 +5550,7 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B602" s="2" t="s">
         <v>0</v>
@@ -6549,7 +6549,7 @@
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B722" s="2" t="s">
         <v>0</v>
@@ -8547,7 +8547,7 @@
     </row>
     <row r="962" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A962" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B962" s="2" t="s">
         <v>0</v>
@@ -9546,7 +9546,7 @@
     </row>
     <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1082" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1082" s="2" t="s">
         <v>0</v>
@@ -11544,7 +11544,7 @@
     </row>
     <row r="1322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1322" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1322" s="2" t="s">
         <v>0</v>
@@ -12543,7 +12543,7 @@
     </row>
     <row r="1442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1442" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1442" s="2" t="s">
         <v>0</v>
@@ -15540,7 +15540,7 @@
     </row>
     <row r="1802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1802" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1802" s="2" t="s">
         <v>0</v>
@@ -16539,7 +16539,7 @@
     </row>
     <row r="1922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1922" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1922" s="2" t="s">
         <v>0</v>
@@ -18537,7 +18537,7 @@
     </row>
     <row r="2162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2162" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2162" s="2" t="s">
         <v>0</v>
@@ -20535,7 +20535,7 @@
     </row>
     <row r="2402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2402" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2402" s="2" t="s">
         <v>0</v>

--- a/podatki/Pregled_pridelkov_regije.xlsx
+++ b/podatki/Pregled_pridelkov_regije.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakab\Desktop\R-Projekt-Naloga\APPR-2020-21\podatki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C312606D-8372-404A-9855-9F296169F92A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178A3364-2660-451D-9AFF-0149B51C66BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="2565" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
     <t>leto</t>
   </si>
   <si>
-    <t>Slovenska_regija</t>
+    <t>Regija</t>
   </si>
 </sst>
 </file>
